--- a/data/trans_camb/P32A-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P32A-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.651031400612005</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.879042082219954</v>
+        <v>2.879042082219955</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-0.5513405611783708</v>
@@ -655,7 +655,7 @@
         <v>1.163720992174373</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.6336650256347887</v>
+        <v>0.6336650256347883</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.963343095420274</v>
@@ -664,7 +664,7 @@
         <v>2.238695579492135</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.405457672216359</v>
+        <v>2.405457672216358</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2835999246089428</v>
+        <v>-0.4945120430469959</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.6344252994321684</v>
+        <v>0.5276611191154708</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.669518021882186</v>
+        <v>0.748391406120945</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.790122058281229</v>
+        <v>-3.630519502882425</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.5577047479077976</v>
+        <v>-0.559731267010058</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.030603240530082</v>
+        <v>-0.8179576631766674</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4361206372014512</v>
+        <v>-0.4832011469742352</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5168164458048089</v>
+        <v>0.3451124974075495</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.7277244694651716</v>
+        <v>0.5985490934265929</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.982743403923186</v>
+        <v>3.748749830038863</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.41211315357944</v>
+        <v>5.232988448739447</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.628668674242336</v>
+        <v>5.578548360176145</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.100750988906979</v>
+        <v>5.103486129784752</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.188059130666459</v>
+        <v>3.30895792879474</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.437462457699786</v>
+        <v>2.608194329965757</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.198873970380652</v>
+        <v>4.574896501302453</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.460973349129822</v>
+        <v>4.640273247574116</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>1.868639661659249</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>2.029358166478246</v>
+        <v>2.029358166478247</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-1</v>
@@ -760,7 +760,7 @@
         <v>2.11071173448072</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.149316901844601</v>
+        <v>1.1493169018446</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.8087694986563154</v>
@@ -769,7 +769,7 @@
         <v>1.879484796307244</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>2.019489011595265</v>
+        <v>2.019489011595264</v>
       </c>
     </row>
     <row r="8">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2725213733445878</v>
+        <v>-0.3266227955493877</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.0530563539053853</v>
+        <v>0.06361757374919662</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.04657274256219492</v>
+        <v>0.2529251554675407</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="n">
-        <v>-0.3586235986449893</v>
+        <v>-0.3053259213005542</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.068727986143523</v>
+        <v>0.08040058456152765</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.153724775528994</v>
+        <v>0.2399623496395878</v>
       </c>
     </row>
     <row r="9">
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>5.533523194354014</v>
+        <v>5.218243005734225</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>8.339495149063708</v>
+        <v>7.746553421456691</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>8.535322778168313</v>
+        <v>8.981539795545613</v>
       </c>
       <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>3.96295065173463</v>
+        <v>4.180712840216434</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>6.042153675369093</v>
+        <v>7.390527163435067</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>6.725098180934168</v>
+        <v>7.336261078853475</v>
       </c>
     </row>
     <row r="10">
@@ -848,7 +848,7 @@
         <v>0.7718620850252754</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.02640413284112041</v>
+        <v>0.02640413284112058</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.177493466351235</v>
@@ -877,31 +877,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5677739648089861</v>
+        <v>0.5617071962244223</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.1929720399983993</v>
+        <v>-0.2634671464390082</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8832677326465369</v>
+        <v>-0.8545940294538661</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3374389748188953</v>
+        <v>0.2958610148821443</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.1356717509154344</v>
+        <v>-0.1498522899062726</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.157287016105925</v>
+        <v>1.039952729165497</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7268075304663535</v>
+        <v>0.7583680937154875</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.05932224622877898</v>
+        <v>-0.06073845772439691</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09930111314008394</v>
+        <v>0.1080535289939079</v>
       </c>
     </row>
     <row r="12">
@@ -912,31 +912,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.077049619841211</v>
+        <v>2.976919660808051</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.728156071147424</v>
+        <v>1.85506893463573</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9159748138889139</v>
+        <v>0.9028950684576</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.619684895055108</v>
+        <v>2.658302783057642</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.272904150402383</v>
+        <v>1.236619754957655</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.225135733301024</v>
+        <v>4.832232214182914</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.502675336190261</v>
+        <v>2.452815889179144</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.372774957423121</v>
+        <v>1.395026378503342</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.657263567855132</v>
+        <v>1.674202206160897</v>
       </c>
     </row>
     <row r="13">
@@ -953,7 +953,7 @@
         <v>0.7069959756602359</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.02418516989192325</v>
+        <v>0.02418516989192341</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>6.165427526909086</v>
@@ -982,25 +982,25 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3019489822573819</v>
+        <v>0.3422482421414215</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1769765353456569</v>
+        <v>-0.1906166812479275</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.600895067582041</v>
+        <v>-0.5796283884088238</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>0.4983889916695499</v>
+        <v>0.5486249676045692</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1355824484919358</v>
+        <v>-0.1408437845071986</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.007313641304804881</v>
+        <v>0.04487570321474427</v>
       </c>
     </row>
     <row r="15">
@@ -1011,25 +1011,25 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>4.633886503430198</v>
+        <v>4.746930969973249</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.705323045289505</v>
+        <v>2.551117968748181</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.656427743545535</v>
+        <v>1.380234098434735</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>4.553764069843369</v>
+        <v>5.038050614125284</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.843122163010292</v>
+        <v>2.735994357951636</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.119882157120788</v>
+        <v>3.247864719239421</v>
       </c>
     </row>
     <row r="16">
@@ -1050,7 +1050,7 @@
         <v>0.01226397565355537</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.580985807192555</v>
+        <v>1.580985807192556</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.125521555389143</v>
@@ -1068,7 +1068,7 @@
         <v>0.9987821536997975</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.391852194032</v>
+        <v>1.391852194031999</v>
       </c>
     </row>
     <row r="17">
@@ -1079,31 +1079,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.076565897494542</v>
+        <v>-0.8255745101438712</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.03572316640103</v>
+        <v>-0.9401680333194277</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1997092650609417</v>
+        <v>0.3494782388664341</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.102879657399621</v>
+        <v>-1.716659194007355</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.4523493405161605</v>
+        <v>0.2315988853814511</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.5405096151199025</v>
+        <v>-0.5540993328399014</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.9140933272045338</v>
+        <v>-0.8747613327964816</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.03614425047687546</v>
+        <v>-0.1153790369405292</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2826208155015641</v>
+        <v>0.3713404264266785</v>
       </c>
     </row>
     <row r="18">
@@ -1114,31 +1114,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.18424972523748</v>
+        <v>1.274917314090136</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.077367916839165</v>
+        <v>1.08169805098396</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.320026497275939</v>
+        <v>3.471470702981151</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8128027417061778</v>
+        <v>0.8152187327113649</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.89532683296691</v>
+        <v>4.844335556278466</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.68140825211438</v>
+        <v>2.675828492034373</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8293768284045813</v>
+        <v>0.8043841594788764</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.419677225803583</v>
+        <v>2.258568265068541</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.516042886402339</v>
+        <v>2.558616839870536</v>
       </c>
     </row>
     <row r="19">
@@ -1173,7 +1173,7 @@
         <v>1.899549683061626</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>2.647116174681656</v>
+        <v>2.647116174681655</v>
       </c>
     </row>
     <row r="20">
@@ -1186,17 +1186,17 @@
       <c r="C20" s="6" t="inlineStr"/>
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="n">
-        <v>-0.3136578376984051</v>
+        <v>-0.2548154326312571</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
       <c r="I20" s="6" t="inlineStr"/>
       <c r="J20" s="6" t="n">
-        <v>-0.3466145770489692</v>
+        <v>-0.3854669178624572</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.006022345692675636</v>
+        <v>0.08896355276645899</v>
       </c>
     </row>
     <row r="21">
@@ -1214,10 +1214,10 @@
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>15.27729377714165</v>
+        <v>16.85510901455378</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>13.46811146537091</v>
+        <v>16.13711251274268</v>
       </c>
     </row>
     <row r="22">
@@ -1238,7 +1238,7 @@
         <v>0.941949963128875</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.7598524047333627</v>
+        <v>0.7598524047333624</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.529860290397161</v>
@@ -1267,31 +1267,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.615111126532277</v>
+        <v>0.6527689703152533</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1095291801710348</v>
+        <v>0.1800924545634445</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05154802181040241</v>
+        <v>0.07920282560463161</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.1268904291654863</v>
+        <v>-0.08939885647097585</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2849490722956296</v>
+        <v>0.1804976220079992</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.8953717356555209</v>
+        <v>0.8437164533601372</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.5472122019204195</v>
+        <v>0.5125388672302746</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4111993467284291</v>
+        <v>0.3329897601466865</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5268378440877317</v>
+        <v>0.5177513059445903</v>
       </c>
     </row>
     <row r="24">
@@ -1302,31 +1302,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.326169579536105</v>
+        <v>2.450900099296132</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.751478530694808</v>
+        <v>1.74263624283509</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.607965828992545</v>
+        <v>1.549473385924897</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.365949403506894</v>
+        <v>1.301447816007209</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.937426651552233</v>
+        <v>1.817717094373104</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.143166003492516</v>
+        <v>3.073347920004877</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.871688666023064</v>
+        <v>1.835582416108194</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.637092709990369</v>
+        <v>1.565634235908202</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.793376793214143</v>
+        <v>1.754624053113858</v>
       </c>
     </row>
     <row r="25">
@@ -1343,7 +1343,7 @@
         <v>0.8819485992389187</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7114504912308436</v>
+        <v>0.7114504912308434</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>1.599959762232645</v>
@@ -1352,7 +1352,7 @@
         <v>3.089505957988283</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>5.5363872575212</v>
+        <v>5.536387257521199</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>1.375050766858947</v>
@@ -1372,31 +1372,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4415475632012475</v>
+        <v>0.3951952696274579</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.04653901754898303</v>
+        <v>0.09824663451098813</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.02912902014478718</v>
+        <v>0.01829506910806166</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4858974622956539</v>
+        <v>-0.473545214820834</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.01368740446675829</v>
+        <v>-0.03539179949809809</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9163503447957878</v>
+        <v>0.8214586454269847</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4852078651636436</v>
+        <v>0.3879335301925067</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3616237345860726</v>
+        <v>0.2512400897095189</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.4468617229507831</v>
+        <v>0.398697787290643</v>
       </c>
     </row>
     <row r="27">
@@ -1407,29 +1407,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>3.10611484109002</v>
+        <v>3.355895645374343</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.29650597407272</v>
+        <v>2.348377587180752</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.036835657950784</v>
-      </c>
-      <c r="F27" s="6" t="inlineStr"/>
+        <v>2.099567701915528</v>
+      </c>
+      <c r="F27" s="6" t="n">
+        <v>11.04217007475562</v>
+      </c>
       <c r="G27" s="6" t="n">
-        <v>16.42805566404643</v>
+        <v>14.09915776718956</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>26.25616848038546</v>
+        <v>23.64442291922659</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.098332501792328</v>
+        <v>2.921163102668339</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.690369118358557</v>
+        <v>2.493841690649433</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>3.113014428049942</v>
+        <v>2.820139756160958</v>
       </c>
     </row>
     <row r="28">
